--- a/output/exracted_tables/mse_table.xlsx
+++ b/output/exracted_tables/mse_table.xlsx
@@ -513,42 +513,42 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>P6</t>
         </is>
       </c>
     </row>

--- a/output/exracted_tables/mse_table.xlsx
+++ b/output/exracted_tables/mse_table.xlsx
@@ -7910,116 +7910,116 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A140:A141"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A200:A201"/>
     <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A218:A219"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
